--- a/document/data source_課程資料/國中/skills_info/skill_info_數學1下.xlsx
+++ b/document/data source_課程資料/國中/skills_info/skill_info_數學1下.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python\math-master\document\data source_課程資料\國中\skills_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32914" windowHeight="11083"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="加上下半部分 再重新一起輸出" sheetId="1" r:id="rId4"/>
+    <sheet name="加上下半部分 再重新一起輸出" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -61,9 +69,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「x」只能跟「x」合併，「y」只能跟「y」合併，「常數」只能跟「常數」合併。</t>
-  </si>
-  <si>
     <t>jh_algebra_2var_substitute_check</t>
   </si>
   <si>
@@ -76,9 +81,6 @@
     <t>熟練將 x=a, y=b 代入二元一次式並計算其值。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 x=2, y=-1 時，3x - 2y = 3(2) - 2(-1) = 6 + 2 = 8。注意負負得正。</t>
-  </si>
-  <si>
     <t>jh_equation_2var_check</t>
   </si>
   <si>
@@ -94,9 +96,6 @@
     <t>熟練判斷一組 (x, y) 是否為二元一次方程式 ax + by = c 的解。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生將 (x, y) 代入方程式左側，檢查其值是否等於右側的 c。</t>
-  </si>
-  <si>
     <t>jh_equation_2var_find_solutions</t>
   </si>
   <si>
@@ -109,9 +108,6 @@
     <t>熟練在整數或特定限制下，列舉出二元一次方程式的幾組解。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生固定 x (例如 x=0, 1, 2...)，然後解出對應的 y 值。</t>
-  </si>
-  <si>
     <t>jh_equation_2var_system_check</t>
   </si>
   <si>
@@ -124,9 +120,6 @@
     <t>熟練判斷一組 (x, y) 是否為二元一次聯立方程式的「共同解」。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 (x, y) 必須「同時」滿足「兩個」方程式，才算是聯立方程式的解。</t>
-  </si>
-  <si>
     <t>jh_equation_2var_solve_substitution</t>
   </si>
   <si>
@@ -139,9 +132,6 @@
     <t>熟練使用「代入消去法」解二元一次聯立方程式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. 將其中一式改寫成 x=... 或 y=...。 2. 將此式「代入」另一方程式中。 3. 檢查計算過程。</t>
-  </si>
-  <si>
     <t>jh_equation_2var_solve_elimination_simple</t>
   </si>
   <si>
@@ -154,9 +144,6 @@
     <t>熟練使用「加減消去法」（係數相同或相反，如 +y, -y）解聯立方程式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生若係數相反 (如 +y, -y)，則兩式「相加」；若係數相同 (如 +y, +y)，則兩式「相減」。</t>
-  </si>
-  <si>
     <t>jh_equation_2var_solve_elimination_scaling</t>
   </si>
   <si>
@@ -169,9 +156,6 @@
     <t>熟練使用「加減消去法」（需先同乘倍數）解聯立方程式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. 選擇要消去的 x 或 y。 2. 將兩式同乘適當倍數，使其係數相同或相反。 3. 檢查「相加」或「相減」的計算。</t>
-  </si>
-  <si>
     <t>jh_equation_2var_word_problem_setup</t>
   </si>
   <si>
@@ -184,9 +168,6 @@
     <t>熟練依題意設定兩個未知數 (x, y)，並列出二元一次聯立方程式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生找出題目中的「兩種」未知數 (設為 x 和 y)，並找出「兩個」等量關係，分別列出兩個方程式。</t>
-  </si>
-  <si>
     <t>jh_equation_2var_word_problem_solve</t>
   </si>
   <si>
@@ -199,9 +180,6 @@
     <t>熟練求解二元一次聯立方程式應用問題並驗算答案。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. 檢查「列式」是否正確。 2. 檢查「代入/加減消去法」的計算是否正確。 3. 檢查答案是否符合題意。</t>
-  </si>
-  <si>
     <t>jh_plane_plot_point</t>
   </si>
   <si>
@@ -220,9 +198,6 @@
     <t>handwriting</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生 (x, y) -&gt; (先左右，後上下)。例如 (-2, 3) 是「左 2，上 3」。</t>
-  </si>
-  <si>
     <t>jh_plane_read_point</t>
   </si>
   <si>
@@ -235,9 +210,6 @@
     <t>熟練讀取坐標平面上某一點的 (x, y) 坐標。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 x 坐標看「水平位置」，y 坐標看「垂直位置」。</t>
-  </si>
-  <si>
     <t>jh_plane_quadrant_identify</t>
   </si>
   <si>
@@ -250,9 +222,6 @@
     <t>熟練判斷 (x, y) 點所在的象限（I, II, III, IV）或坐標軸（x 軸, y 軸）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生象限規則：I (+,+), II (-,+), III (-,-), IV (+,-)。</t>
-  </si>
-  <si>
     <t>jh_plane_point_translation</t>
   </si>
   <si>
@@ -265,9 +234,6 @@
     <t>熟練計算 (x, y) 點向上、下、左、右平移後的新坐標。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「向右 3」是 x+3，「向下 2」是 y-2。</t>
-  </si>
-  <si>
     <t>jh_graph_2var_plot_line</t>
   </si>
   <si>
@@ -280,9 +246,6 @@
     <t>熟練找出 ax + by = c 的任意兩組解 (x, y)，並在坐標平面上繪製出其直線圖形。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，教導學生「找兩點決定一直線」，最簡單是找 (x, 0) 和 (0, y) (截距)。</t>
-  </si>
-  <si>
     <t>jh_graph_horizontal_line</t>
   </si>
   <si>
@@ -295,9 +258,6 @@
     <t>熟練繪製水平線 y = k 的圖形。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生 y = k 是一條「水平線」，通過 (0, k)。</t>
-  </si>
-  <si>
     <t>jh_graph_vertical_line</t>
   </si>
   <si>
@@ -310,9 +270,6 @@
     <t>熟練繪製鉛直線 x = h 的圖形。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生 x = h 是一條「鉛直線」，通過 (h, 0)。</t>
-  </si>
-  <si>
     <t>jh_graph_system_solution</t>
   </si>
   <si>
@@ -325,9 +282,6 @@
     <t>理解聯立方程式的解，即為兩條直線圖形的「交點坐標」。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生兩直線的「交點」坐標 (x, y) 即為聯立方程式的唯一解。</t>
-  </si>
-  <si>
     <t>jh_ratio_def_value</t>
   </si>
   <si>
@@ -343,9 +297,6 @@
     <t>熟練計算 a:b 的比值（a/b）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 3:5 的比值是 3/5 (前項除以後項)。</t>
-  </si>
-  <si>
     <t>jh_ratio_simplify</t>
   </si>
   <si>
@@ -358,9 +309,6 @@
     <t>熟練將分數比、小數比或整數比化為最簡整數比。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「最簡整數比」：1. 各項皆為整數 2. 各項互質。</t>
-  </si>
-  <si>
     <t>jh_proportion_solve</t>
   </si>
   <si>
@@ -373,9 +321,6 @@
     <t>熟練應用「內項積 = 外項積」(ad=bc) 求解 x:a = b:c 中的 x。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 x:3 = 4:5 ⇒ 5x = 3×4 ⇒ 5x = 12 ⇒ x = 12/5。</t>
-  </si>
-  <si>
     <t>jh_proportion_word_problem</t>
   </si>
   <si>
@@ -388,9 +333,6 @@
     <t>熟練應用 x:y = a:b ⇒ 設 x = ar, y = br (r≠0) 求解應用問題。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生若 x:y = 3:2，應假設 x = 3r, y = 2r，再代入其他條件解出 r。</t>
-  </si>
-  <si>
     <t>jh_proportion_direct_def</t>
   </si>
   <si>
@@ -403,9 +345,6 @@
     <t>熟練判斷兩數量 x, y 是否成正比（y = kx 或 y/x = k, k≠0）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「正比」代表 x 變 2 倍時，y 也變 2 倍，且其關係式為 y = kx。</t>
-  </si>
-  <si>
     <t>jh_proportion_inverse_def</t>
   </si>
   <si>
@@ -418,9 +357,6 @@
     <t>熟練判斷兩數量 x, y 是否成反比（xy = k, k≠0）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「反比」代表 x 變 2 倍時，y 變 1/2 倍，且其關係式為 xy = k。</t>
-  </si>
-  <si>
     <t>jh_inequality_def_symbols</t>
   </si>
   <si>
@@ -436,9 +372,6 @@
     <t>熟練辨識 &gt; (大於), &lt; (小於), ≥ (不小於/大於等於), ≤ (不大於/小於等於) 的意義。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「x 不小於 5」代表「x ≥ 5」；「x 不大於 5」代表「x ≤ 5」。</t>
-  </si>
-  <si>
     <t>jh_inequality_word_problem_setup</t>
   </si>
   <si>
@@ -451,9 +384,6 @@
     <t>熟練依題意列出一元一次不等式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「超過 100 元」是 &gt; 100；「不超過 100 元」是 ≤ 100。</t>
-  </si>
-  <si>
     <t>jh_inequality_check_solution</t>
   </si>
   <si>
@@ -466,9 +396,6 @@
     <t>熟練判斷一個數是否為一元一次不等式的解。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生將 x 值代入不等式，檢查是否「滿足」不等號。</t>
-  </si>
-  <si>
     <t>jh_inequality_plot_number_line</t>
   </si>
   <si>
@@ -481,9 +408,6 @@
     <t>熟練在數線上圖示不等式的解（包含空心圓與實心圓）。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生 &gt; 或 &lt; 是「空心圓」（不包含端點）；≥ 或 ≤ 是「實心圓」（包含端點）。</t>
-  </si>
-  <si>
     <t>jh_inequality_solve_add_sub</t>
   </si>
   <si>
@@ -496,9 +420,6 @@
     <t>熟練使用加法與減法（移項）求解不等式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 x + 3 &gt; 5 ⇒ x &gt; 5 - 3，加減移項時，不等號「方向不變」。</t>
-  </si>
-  <si>
     <t>jh_inequality_solve_mul_div_positive</t>
   </si>
   <si>
@@ -511,9 +432,6 @@
     <t>熟練使用乘法與除法（同乘除以正數）求解不等式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生 3x &gt; 6 ⇒ x &gt; 6 ÷ 3，同乘除「正數」時，不等號「方向不變」。</t>
-  </si>
-  <si>
     <t>jh_inequality_solve_mul_div_negative</t>
   </si>
   <si>
@@ -526,9 +444,6 @@
     <t>熟練使用乘法與除法（同乘除以負數）求解不等式。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「同乘除以一個負數時，不等號方向要改變」。例如 -2x &gt; 6 ⇒ x &lt; 6 ÷ (-2) ⇒ x &lt; -3。</t>
-  </si>
-  <si>
     <t>jh_inequality_solve_multi_step</t>
   </si>
   <si>
@@ -541,9 +456,6 @@
     <t>熟練求解多步驟的一元一次不等式（含移項、去括號、去分母）。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生 1. 先去括號/去分母。 2. 移項（x 移一邊，常數移一邊）。 3. 檢查最後一步除法是否因「負數」而改變方向。</t>
-  </si>
-  <si>
     <t>jh_stats_freq_polygon_plot</t>
   </si>
   <si>
@@ -559,9 +471,6 @@
     <t>熟練繪製次數分配折線圖（標示組中點）。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案（圖形）：{correct_answer}。如果錯誤，提醒學生「折線圖」要標示「組中點」並連接，且頭尾需「各補一組」使其接地。</t>
-  </si>
-  <si>
     <t>jh_geo_def_point_line_angle</t>
   </si>
   <si>
@@ -577,9 +486,6 @@
     <t>認識點、線、射線、線段與角的定義及符號。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「線段 AB」 (有端點) 與「直線 AB」 (無限延伸) 的不同。</t>
-  </si>
-  <si>
     <t>jh_geo_def_polygon</t>
   </si>
   <si>
@@ -592,9 +498,6 @@
     <t>認識多邊形、正多邊形、對角線的定義。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「正多邊形」需要「等邊」且「等角」。</t>
-  </si>
-  <si>
     <t>jh_geo_def_perpendicular_bisector</t>
   </si>
   <si>
@@ -607,9 +510,6 @@
     <t>熟練垂直、垂足、點到直線距離、中點與垂直平分線的定義。</t>
   </si>
   <si>
-    <t>分析學生答案：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「點到直線的距離」是指「垂直距離」（最短）。</t>
-  </si>
-  <si>
     <t>jh_geo_def_line_symmetry</t>
   </si>
   <si>
@@ -622,9 +522,6 @@
     <t>熟練判斷線對稱圖形，並找出對稱軸、對稱點、對稱角。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形或判斷）：{user_answer}，正確答案：{correct_answer}。如果錯誤，提醒學生「線對稱圖形」沿「對稱軸」摺疊後，兩側會「完全重合」。</t>
-  </si>
-  <si>
     <t>jh_geo_def_3d_views</t>
   </si>
   <si>
@@ -637,23 +534,371 @@
     <t>熟練辨識立體圖形的前視圖、上視圖與右視圖。</t>
   </si>
   <si>
-    <t>分析學生答案（圖形）：{user_answer}，正確答案：{correct_answer}。如果錯誤，引導學生想像自己站在「正前方」、「正上方」或「正右方」看積木，所看到的 2D 形狀。</t>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「x」只能跟「x」合併，「y」只能跟「y」合併，「常數」只能跟「常數」合併。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 x=2, y=-1 時，3x - 2y = 3(2) - 2(-1) = 6 + 2 = 8。注意負負得正。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生將 (x, y) 代入方程式左側，檢查其值是否等於右側的 c。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生固定 x (例如 x=0, 1, 2...)，然後解出對應的 y 值。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (x, y) 必須「同時」滿足「兩個」方程式，才算是聯立方程式的解。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. 將其中一式改寫成 x=... 或 y=...。 2. 將此式「代入」另一方程式中。 3. 檢查計算過程。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生若係數相反 (如 +y, -y)，則兩式「相加」；若係數相同 (如 +y, +y)，則兩式「相減」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. 選擇要消去的 x 或 y。 2. 將兩式同乘適當倍數，使其係數相同或相反。 3. 檢查「相加」或「相減」的計算。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生找出題目中的「兩種」未知數 (設為 x 和 y)，並找出「兩個」等量關係，分別列出兩個方程式。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. 檢查「列式」是否正確。 2. 檢查「代入/加減消去法」的計算是否正確。 3. 檢查答案是否符合題意。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 (x, y) -&gt; (先左右，後上下)。例如 (-2, 3) 是「左 2，上 3」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 x 坐標看「水平位置」，y 坐標看「垂直位置」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生象限規則：I (+,+), II (-,+), III (-,-), IV (+,-)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「向右 3」是 x+3，「向下 2」是 y-2。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，教導學生「找兩點決定一直線」，最簡單是找 (x, 0) 和 (0, y) (截距)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 y = k 是一條「水平線」，通過 (0, k)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 x = h 是一條「鉛直線」，通過 (h, 0)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生兩直線的「交點」坐標 (x, y) 即為聯立方程式的唯一解。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 3:5 的比值是 3/5 (前項除以後項)。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「最簡整數比」：1. 各項皆為整數 2. 各項互質。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 x:3 = 4:5 ⇒ 5x = 3×4 ⇒ 5x = 12 ⇒ x = 12/5。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生若 x:y = 3:2，應假設 x = 3r, y = 2r，再代入其他條件解出 r。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「正比」代表 x 變 2 倍時，y 也變 2 倍，且其關係式為 y = kx。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「反比」代表 x 變 2 倍時，y 變 1/2 倍，且其關係式為 xy = k。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「x 不小於 5」代表「x ≥ 5」；「x 不大於 5」代表「x ≤ 5」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「超過 100 元」是 &gt; 100；「不超過 100 元」是 ≤ 100。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生將 x 值代入不等式，檢查是否「滿足」不等號。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 &gt; 或 &lt; 是「空心圓」（不包含端點）；≥ 或 ≤ 是「實心圓」（包含端點）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 x + 3 &gt; 5 ⇒ x &gt; 5 - 3，加減移項時，不等號「方向不變」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生 3x &gt; 6 ⇒ x &gt; 6 ÷ 3，同乘除「正數」時，不等號「方向不變」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「同乘除以一個負數時，不等號方向要改變」。例如 -2x &gt; 6 ⇒ x &lt; 6 ÷ (-2) ⇒ x &lt; -3。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生 1. 先去括號/去分母。 2. 移項（x 移一邊，常數移一邊）。 3. 檢查最後一步除法是否因「負數」而改變方向。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「折線圖」要標示「組中點」並連接，且頭尾需「各補一組」使其接地。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「線段 AB」 (有端點) 與「直線 AB」 (無限延伸) 的不同。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「正多邊形」需要「等邊」且「等角」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，提醒學生「點到直線的距離」是指「垂直距離」（最短）。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]果錯誤，提醒學生「線對稱圖形」沿「對稱軸」摺疊後，兩側會「完全重合」。</t>
+  </si>
+  <si>
+    <t>[任務]
+你是功文式數學助教。你的語氣必須 **簡潔、中性、專業**。
+**嚴格禁止**：聊天（如 "哈囉"）、表情符號（emoji）、過度讚美（如 "你很棒"、"哇"）或不必要的鼓勵性廢話。
+[分析]
+學生答案：{user_answer}
+正確答案：{correct_answer}
+[指導]如果錯誤，引導學生想像自己站在「正前方」、「正上方」或「正右方」看積木，所看到的 2D 形狀。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -662,36 +907,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -881,20 +1133,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.61328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -926,7 +1183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,1203 +1203,1204 @@
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>4760.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4770.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4780</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4780.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4790</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4790.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>4800.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>4810.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>4820.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>4830.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>4840.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>4850.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>4860.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4870.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="F16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4910</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4880.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H15" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>4890.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>4900.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H17" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4910.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H18" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4920.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H22" s="1">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>4930.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" s="1">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H20" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4940.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="1">
+        <v>5</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H21" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>4950.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="D27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H22" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>4960.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" s="1">
+        <v>5</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="1">
+        <v>5</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
-        <v>4970.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="F29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H29" s="1">
+        <v>5</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>4980.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H25" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J25" s="1">
-        <v>4990.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="D31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H26" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>5000.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5</v>
+      </c>
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>5010.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5</v>
+      </c>
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5080</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H28" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1">
-        <v>5020.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5</v>
+      </c>
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5090</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>5030.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="F36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="H30" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" s="1">
-        <v>5040.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="F37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5</v>
+      </c>
+      <c r="I37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="H31" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1">
-        <v>5050.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J38" s="1">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="12.45" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>5060.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" s="1">
-        <v>5070.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H34" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" s="1">
-        <v>5080.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H35" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J35" s="1">
-        <v>5090.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H36" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J36" s="1">
-        <v>5100.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H37" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J37" s="1">
-        <v>5110.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H38" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J38" s="1">
-        <v>5120.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="F39" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H39" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J39" s="1">
-        <v>5130.0</v>
+        <v>5130</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>